--- a/Artefatos/22. Requisitos do Sistema (SSS).xlsx
+++ b/Artefatos/22. Requisitos do Sistema (SSS).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,48 +24,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>REQUISITOS DO SISTEMA</t>
   </si>
   <si>
-    <t>SSS-0001 O sistema DEVE receber a solicitação de serviço</t>
-  </si>
-  <si>
-    <t>SSS-0002 O sistema DEVE armazenar os dados do cliente e veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0003 O sistema DEVE fornecer orçamento ao cliente </t>
-  </si>
-  <si>
-    <t>SSS-0002 O sistema DEVE permitir que o Cliente acompanhe as situações de status de seu veículo</t>
-  </si>
-  <si>
-    <t>SSS-0004 O sistema DEVE permitir que o estoquista registre o material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0005 O sistema DEVE informar ao estoquista o material  existente </t>
-  </si>
-  <si>
-    <t>SSS-0006 O sistema DEVE informar ao estoquista os materiais inexistente</t>
-  </si>
-  <si>
-    <t>SSS-0008 O sistema DEVE registrar entrada de lucros e despesas da oficina</t>
-  </si>
-  <si>
-    <t>SSS-0009 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas</t>
-  </si>
-  <si>
-    <t>SSS-0007 O sistema DEVE informar ao avaliador o cálculo de material para o serviço</t>
-  </si>
-  <si>
     <t xml:space="preserve">SSS-0010 O sistema DEVE registrar todos os funcionários, cada um com a sua digital para controle de ponto  </t>
   </si>
   <si>
     <t>SSS-0011 O sistema DEVE oferecer ao supervisor a opção de consulta do controle de ponto dos funcionários</t>
   </si>
   <si>
-    <t>SSS-0012 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação</t>
+    <t>SSS-001  O sistema DEVE receber a solicitação de serviço</t>
+  </si>
+  <si>
+    <t>SSS-002 O sistema DEVE armazenar os dados do cliente e veículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-003 O sistema DEVE fornecer orçamento ao cliente </t>
+  </si>
+  <si>
+    <t>SSS-002 O sistema DEVE permitir que o Cliente acompanhe as situações de status de seu veículo</t>
+  </si>
+  <si>
+    <t>SSS-004 O sistema DEVE permitir que o estoquista registre o material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-005 O sistema DEVE informar ao estoquista o material  existente </t>
+  </si>
+  <si>
+    <t>SSS-006 O sistema DEVE informar ao estoquista os materiais inexistente</t>
+  </si>
+  <si>
+    <t>SSS-007 O sistema DEVE informar ao avaliador o cálculo de material para o serviço</t>
+  </si>
+  <si>
+    <t>SSS-008 O sistema DEVE registrar entrada de lucros e despesas da oficina</t>
+  </si>
+  <si>
+    <t>SSS-009 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas</t>
+  </si>
+  <si>
+    <t>SSS-0012 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran</t>
+  </si>
+  <si>
+    <t>SSS-0013 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos finalizados</t>
+  </si>
+  <si>
+    <t>SSS-0014 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos pendentes</t>
+  </si>
+  <si>
+    <t>SSS-0015 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento</t>
+  </si>
+  <si>
+    <t>SSS-0016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais propriedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0017 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior saída </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem menos saída </t>
+  </si>
+  <si>
+    <t>SSS-0019 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0020 O sistema DEVE informar se o cliente já consta no banco de dados, se solicitou algum  serviço </t>
+  </si>
+  <si>
+    <t>SSS-0021 O sistema DEVE registrar nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0022 O sistema DEVE gerar os lucros e depesas de fechamento de cada mês </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0023 O sistema DEVE calcular o prazo de conserto </t>
+  </si>
+  <si>
+    <t>SSS-0024 O sistema DEVE gerar um acesso exclusivo para cada cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0025 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos </t>
   </si>
 </sst>
 </file>
@@ -147,11 +186,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -436,58 +475,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="124.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -497,22 +536,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
+      <c r="A13" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -522,6 +561,71 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Artefatos/22. Requisitos do Sistema (SSS).xlsx
+++ b/Artefatos/22. Requisitos do Sistema (SSS).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\tcc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1455" yWindow="15" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,100 +24,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>REQUISITOS DO SISTEMA</t>
   </si>
   <si>
-    <t>SSS-0012 O sistema DEVE oferecer ao supervisor a opção de consulta do controle de ponto dos funcionários.</t>
-  </si>
-  <si>
-    <t>SSS-0013 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran.</t>
-  </si>
-  <si>
-    <t>SSS-0003 O sistema DEVE permitir que um cliente agende um reparo futuro.</t>
-  </si>
-  <si>
-    <t>SSS-0004 O sistema DEVE gerar numero de ordem de serviço.</t>
-  </si>
-  <si>
-    <t>SSS-0001 O sistema DEVE armazenar os dados cadastrais do cliente e veiculo.</t>
-  </si>
-  <si>
-    <t>SSS-0006 O sistema DEVE fornecer orçamento ao cliente.</t>
-  </si>
-  <si>
-    <t>SSS-0007 O sistema DEVE armazenar dados de peças e materiais em estoque.</t>
-  </si>
-  <si>
-    <t>SSS-0014 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos pendentes e finalizados.</t>
-  </si>
-  <si>
-    <t>SSS-0015 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento.</t>
-  </si>
-  <si>
-    <t>SSS-0016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais frequencia.</t>
-  </si>
-  <si>
-    <t>SSS-0017 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior saída e menor saida.</t>
-  </si>
-  <si>
-    <t>SSS-0018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário.</t>
-  </si>
-  <si>
-    <t>SSS-0020 O sistema DEVE registrar nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário.</t>
-  </si>
-  <si>
-    <t>SSS-0023 O sistema DEVE gerar um acesso exclusivo online para cada cliente visualizar em tempo real o reparo do seu veiculo.</t>
-  </si>
-  <si>
-    <t>SSS-0024 O sistema DEVE armazenar codigo da tinta utilizada na repintura do veiculo.</t>
-  </si>
-  <si>
-    <t>SSS-0008 O sistema DEVE informar ao setor de serviço o cálculo de material para o serviço que sera executado.</t>
-  </si>
-  <si>
-    <t>SSS-0009 O sistema DEVE armazenar fotos do veiculo reparado.</t>
-  </si>
-  <si>
-    <t>SSS-0010 O sistema DEVE gerar relatorio de lucros e despesas do fechamento de cada mês .</t>
-  </si>
-  <si>
-    <t>SSS-0021 O sistema DEVE conter o controle de validade de tintas.</t>
-  </si>
-  <si>
-    <t>SSS-0002 O sistema DEVE armazenar a data de entrada,a data de saida do veiculo e o horario de entrada e saida.</t>
-  </si>
-  <si>
-    <t>SSS-0005 O sistema DEVE permitir alteração, inclusão, exclusão do dado cadastral do cliente.</t>
-  </si>
-  <si>
-    <t>SSS-0011 O sistema DEVE registrar todos os funcionários, cada um com a sua digital para controle de ponto.</t>
-  </si>
-  <si>
-    <t>SSS-0019 O sistema DEVE informar se o cliente já consta no banco de dados, se solicitou algum serviço.</t>
-  </si>
-  <si>
-    <t>SSS-0022 O sistema DEVE calcular o prazo de conserto.</t>
-  </si>
-  <si>
-    <t>SSS-0025 O sistema DEVE gerar relatorio de índice de inadimplência.</t>
-  </si>
-  <si>
-    <t>SSS-0026 O sistema DEVE emitir boleto para pagamento do serviço executado.</t>
-  </si>
-  <si>
-    <t>SSS-0027 O sistema DEVE ter calendario anual.</t>
-  </si>
-  <si>
-    <t>SSS-0028 O sistema DEVE ter acesso a calculadora.</t>
+    <t>SSS-001 O sistema DEVE gerar um acesso exclusivo para cada cliente.</t>
+  </si>
+  <si>
+    <t>SSS-002 O sistema DEVE permitir que o cliente realize uma solicitação de serviço.</t>
+  </si>
+  <si>
+    <t>SSS-003 O sistema DEVE permitir que um cliente agende um reparo futuro.</t>
+  </si>
+  <si>
+    <t>SSS-004 O sistema DEVE permitir que a atendente armazena a data e horário de entrada e saida do veículo.</t>
+  </si>
+  <si>
+    <t>SSS-005 O sistema DEVE fornecer orçamento ao cliente.</t>
+  </si>
+  <si>
+    <t>SSS-006 O sistema DEVE permitir que o cliente acompanhe as situações de status de seu veículo em tempo real.</t>
+  </si>
+  <si>
+    <t>SSS-007 O sistema DEVE permitir que o estoquista registre o material.</t>
+  </si>
+  <si>
+    <t>SSS-008 O sistema DEVE informar ao estoquista o material  existente e inexistente.</t>
+  </si>
+  <si>
+    <t>SSS-009 O sistema DEVE informar ao avaliador o cálculo de material para o serviço.</t>
+  </si>
+  <si>
+    <t>SSS-011 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas.</t>
+  </si>
+  <si>
+    <t>SSS-012 O sistema DEVE permitir que o atendente consulte os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran.</t>
+  </si>
+  <si>
+    <t>SSS-013 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos finalizados e pendentes.</t>
+  </si>
+  <si>
+    <t>SSS-014 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento.</t>
+  </si>
+  <si>
+    <t>SSS-015 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais frequência.</t>
+  </si>
+  <si>
+    <t>SSS-016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior e menor saída.</t>
+  </si>
+  <si>
+    <t>SSS-017 O sistema DEVE gerar relatório de índice de inadimplência.</t>
+  </si>
+  <si>
+    <t>SSS-018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário.</t>
+  </si>
+  <si>
+    <t>SSS-019 O sistema DEVE permitir que o atendente consulte se o cliente já consta no banco de dados.</t>
+  </si>
+  <si>
+    <t>SSS-021 O sistema DEVE permitir que o supervisor consulte o controle de ponto dos funcionários.</t>
+  </si>
+  <si>
+    <t>SSS-022 O sistema DEVE gerar os lucros e depesas de fechamento de cada mês.</t>
+  </si>
+  <si>
+    <t>SSS-023 O sistema DEVE permitir que o Setor de Serviço calcule o prazo de conserto.</t>
+  </si>
+  <si>
+    <t>SSS-024 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos.</t>
+  </si>
+  <si>
+    <t>SSS-025 O sistema DEVE gerar número de ordem de serviço.</t>
+  </si>
+  <si>
+    <t>SSS-027 O sistema DEVE permitir que o atendente armazene e consulte fotos do veículo antes e depois de reparado.</t>
+  </si>
+  <si>
+    <t>SSS-028 O sistema DEVE conter o controle de validade de tintas.</t>
+  </si>
+  <si>
+    <t>SSS-029 O sistema DEVE permitir que o estoquista armazene e consulte o código da tinta utilizada na repintura do veículo.</t>
+  </si>
+  <si>
+    <t>SSS-030 O sistema DEVE permitir que o cliente emite e imprima o boleto para pagamento do serviço executado.</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Processo Receber solicitação de serviço.</t>
+  </si>
+  <si>
+    <t>Processo Solicitar avaliação do serviço.</t>
+  </si>
+  <si>
+    <t>Processo Criar orçamento.</t>
+  </si>
+  <si>
+    <t>Processo Entrar em contato com o cliente.</t>
+  </si>
+  <si>
+    <t>Processo Verificar materiais.</t>
+  </si>
+  <si>
+    <t>Processo  Avaliar veículo.</t>
+  </si>
+  <si>
+    <t>Processo Receber retorno do orçamento.</t>
+  </si>
+  <si>
+    <t>SSS-010 O sistema DEVE permitir que o Setor Financeiro registre entrada de lucros e despesas da oficina.</t>
+  </si>
+  <si>
+    <t>Processo Receber ordem de serviço finalizada.</t>
+  </si>
+  <si>
+    <t>Processo Iniciar serviço.</t>
+  </si>
+  <si>
+    <t>SSS-020 O sistema DEVE permitir que os funcionáios se registrem nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário, cada um com a sua digital para controle de ponto.</t>
+  </si>
+  <si>
+    <t>Processo Finalizar avaliação.</t>
+  </si>
+  <si>
+    <t>SSS-026 O sistema DEVE permitir que o supervisor consulte, altere, inclua e exclua do dado cadastral de cada funcionário.</t>
+  </si>
+  <si>
+    <t>Processo Perguntar a forma de pagamento.</t>
+  </si>
+  <si>
+    <t>Processo  Receber retorno do orçamento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,22 +184,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +206,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,79 +240,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -551,217 +544,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="124.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="192.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>